--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T14:58:08+00:00</t>
+    <t>2022-03-25T12:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,10 +276,30 @@
     <t>The treaments that are included in this record</t>
   </si>
   <si>
+    <t>BeModelMedicationView.treatments.indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Why the treatment exists</t>
+  </si>
+  <si>
     <t>BeModelMedicationView.treatments.treatmentLines</t>
   </si>
   <si>
     <t>The treatment lines that are included in this record</t>
+  </si>
+  <si>
+    <t>BeModelMedicationView.treatments.treatmentLines.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>Product for which the treatment line refers to</t>
   </si>
   <si>
     <t>BeModelMedicationView.treatments.treatmentLines.detailedRecords</t>
@@ -653,7 +673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1235,13 +1255,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1312,7 +1332,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1338,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>90</v>
@@ -1392,7 +1412,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -1420,10 +1440,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1495,10 +1515,10 @@
         <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1535,10 +1555,10 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>96</v>
@@ -2007,6 +2027,206 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:46:50+00:00</t>
+    <t>2022-03-25T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:55:42+00:00</t>
+    <t>2022-03-25T14:39:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T14:39:23+00:00</t>
+    <t>2022-04-04T13:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T13:17:06+00:00</t>
+    <t>2022-04-08T09:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T09:50:16+00:00</t>
+    <t>2022-04-08T10:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:19:08+00:00</t>
+    <t>2022-04-08T10:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationView.xlsx
+++ b/StructureDefinition-BeModelMedicationView.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:25:57+00:00</t>
+    <t>2022-04-08T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
